--- a/data/case1/13/Q2_1.xlsx
+++ b/data/case1/13/Q2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.11184819516619626</v>
+        <v>0.098389817566534532</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999515660818</v>
+        <v>-0.0018549865507253571</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.003999999961044054</v>
+        <v>-0.0039999999551447729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999273727695</v>
+        <v>-0.0079999999172670755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.050643192137731496</v>
+        <v>-0.0029999999570540226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999632087651</v>
+        <v>-0.0019999999582100969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999007391871</v>
+        <v>-0.0099999998884960917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999024893427</v>
+        <v>-0.0099999998863529171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999703799176</v>
+        <v>-0.0019999999538935498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999751600939</v>
+        <v>-0.0019999999528153012</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.02487210230829362</v>
+        <v>-0.0029999999441727709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999641098789</v>
+        <v>-0.0034999999398346304</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.003499999966136258</v>
+        <v>-0.0034999999401055248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.022204301171406371</v>
+        <v>0.013493930986550495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998677979818</v>
+        <v>-0.00099999996127841939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999782802647</v>
+        <v>-0.0019999999518183209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999775697219</v>
+        <v>-0.0019999999506952193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.003999999961497025</v>
+        <v>-0.0039999999331445935</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999673234754</v>
+        <v>0.03295078868780088</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999672453157</v>
+        <v>-0.0039999999619286797</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999674940057</v>
+        <v>-0.0039999999615014659</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.01053404203518582</v>
+        <v>-0.0039999999612545523</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999504484194</v>
+        <v>-0.0049999999436085574</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999827438941</v>
+        <v>-0.019999999808768543</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999824999115</v>
+        <v>-0.019999999806175062</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999568571241</v>
+        <v>-0.0024999999533417139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999532098194</v>
+        <v>-0.0024999999526396088</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999418809367</v>
+        <v>0.0029106643722647263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998912146921</v>
+        <v>-0.0069999999087340115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.05999999946512613</v>
+        <v>0.010934449123754408</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998822929399</v>
+        <v>-0.006999999904421017</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.009999999858091968</v>
+        <v>-0.0099999998779214394</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999056323787</v>
+        <v>-0.0039999999295616817</v>
       </c>
     </row>
   </sheetData>
